--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_207.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_207.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,722 +488,684 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj/B', 'D:7']]</t>
-        </is>
+          <t>schubert-winterreise_155</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3819444444444445</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(19.36, 22.38)]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(7.76, 15.8)]</t>
+          <t>[('0:00:01.460000', '0:00:11.260000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:07.900000', '0:00:20.520000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'C#:7', 'F#:min'], ['F#:min', 'B:min/F#', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_137</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_7</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(3.32, 6.3), (0.56, 4.26)]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(84.0, 90.84), (28.8, 36.86)]</t>
+          <t>[('0:00:07.700000', '0:00:18.640000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:14.780000', '0:00:19.020000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_197</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_238</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.09855072463768116</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['C:dim7', 'C#:maj', 'F#:maj/A#']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(0.36, 5.0)]</t>
+          <t>[['B:dim7', 'C', 'F']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(40.12, 47.88)]</t>
+          <t>[('0:00:15.840000', '0:00:18.660000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:17.769637', '0:00:22.996281')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:5By7Pzgl6TMuVJG168VWzS</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_92</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_35</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.315</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A', 'A', 'F#:7', 'B:7', 'E:7', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_122</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_71</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.09779367918902802</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'C/7', 'A:7', 'D:7', 'G:7', 'C']]</t>
+          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(24.631133, 36.902879)]</t>
+          <t>[['D#:maj/A#', 'A#:7', 'D#:maj', 'C:min/G']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(12.851927, 24.845034)]</t>
+          <t>[('0:00:36.400000', '0:00:44.080000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
+          <t>[('0:01:50.320000', '0:02:02.840000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_146</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_22</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1846153846153846</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(46.52, 48.94)]</t>
+          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(36.66, 43.94)]</t>
+          <t>[('0:00:24.640000', '0:00:36.020000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:53.460000', '0:01:03.980000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_197</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3726708074534161</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G#:min', 'D#:min', 'A#:7', 'D#:min']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(2.68, 6.46)]</t>
+          <t>[['F#:maj/A#', 'C#:7', 'F#:maj', 'F#:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(7.6, 13.86)]</t>
+          <t>[('0:01:00.120000', '0:01:03.420000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
+          <t>[('0:00:19.720000', '0:00:23.080000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_93</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:min', 'G:min']]</t>
+          <t>[['F:7', 'A#:min', 'A#:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(12.78, 16.74)]</t>
+          <t>[['C:7', 'F:min/C', 'F:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(3.44, 7.08)]</t>
+          <t>[('0:00:16.260000', '0:00:21.140000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
+          <t>[('0:00:35.820000', '0:00:37.760000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_82</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3726708074534161</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(39.84, 47.28)]</t>
+          <t>[['G:maj/B', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(42.44, 44.36)]</t>
+          <t>[('0:01:05.440000', '0:01:09.180000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:20.600000', '0:00:24.180000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
+          <t>isophonics_221</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>[['C', 'F/5', 'C']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(6.3, 113.78)]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(5.44, 113.76)]</t>
+          <t>[('0:00:05.121000', '0:00:12.601000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:58.400000', '0:01:00.680000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_154</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5050505050505051</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min'], ['A#:min', 'F:maj', 'A#:min']]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(9.26, 13.9), (1.18, 6.14)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(74.5, 80.42), (11.7, 20.02)]</t>
+          <t>[('0:00:07.600000', '0:00:23.340000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:21.780000', '0:00:28.040000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_91</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_16</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['D#:maj', 'A#:maj', 'A#:min', 'F:min/C', 'C:7', 'F:min', 'G#:maj', 'G#:min', 'A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj', 'D#:7', 'G#:maj', 'C:(3,5,b7,b9)/G#', 'F:min/G#', 'D#:maj/A#', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(0.22, 5.02)]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(13.42, 26.46)]</t>
+          <t>[('0:00:48.320000', '0:01:46.760000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:46.340000', '0:01:37.480000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_30</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(9.6, 32.34)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(41.78, 56.28)]</t>
+          <t>[('0:00:58.680000', '0:01:01.260000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:24.260000', '0:00:27.200000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_34</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_51</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(6.88, 12.96)]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(13.72, 22.2)]</t>
+          <t>[('0:00:14.160000', '0:01:35.780000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:14.880000', '0:01:39.500000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_92</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_49</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(10.24, 21.02)]</t>
+          <t>[['A:min', 'E:7/B', 'A:min/C', 'A:maj/C#', 'D:min', 'B:hdim7', 'A:min', 'A#:maj', 'F:maj/A', 'E:7', 'F:maj'], ['A:7/G', 'D:min/F', 'A:maj/E', 'D:min/F', 'A:maj/E', 'D:min/F', 'A:maj/E', 'D:min/F', 'A:maj/E', 'D:min', 'A:min/E']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(13.66, 17.9)]</t>
+          <t>[('0:00:00.360000', '0:00:08.660000'), ('0:01:13.400000', '0:01:21.180000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:00.340000', '0:00:08.840000'), ('0:01:11.800000', '0:01:19.080000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_30</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_56</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(12.42, 27.08), (73.62, 81.04)]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(13.6, 17.78), (31.34, 33.52)]</t>
+          <t>[('0:00:13.800000', '0:00:18.440000'), ('0:00:24.260000', '0:00:27.200000'), ('0:00:19.120000', '0:00:20.760000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_20</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_0</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(39.04, 46.1)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(74.1, 80.04)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:12.400000', '0:00:16.560000'), ('0:00:21.880000', '0:00:24.860000'), ('0:00:17.200000', '0:00:18.680000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
